--- a/quotes/FLAVI-NS5-RdRp-t3c-i1a-Enamine quote 0FWIO6Z reactants Q2011189 EUR.xlsx
+++ b/quotes/FLAVI-NS5-RdRp-t3c-i1a-Enamine quote 0FWIO6Z reactants Q2011189 EUR.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\000_Zero_VAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Data/RdRp_FFF/quotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846CA830-F118-47C8-A903-DA4DC92C334A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982F6D4-902A-7146-A291-E7011691A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{1A2EB696-42B4-F849-B20B-26AFFA9EBC84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{1A2EB696-42B4-F849-B20B-26AFFA9EBC84}"/>
   </bookViews>
   <sheets>
     <sheet name="FLAVIRdRp-t3c-i1a-Enamine quote" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FLAVIRdRp-t3c-i1a-Enamine quote'!$A$1:$E$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'FLAVIRdRp-t3c-i1a-Enamine quote'!$A$1:$H$312</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="633">
   <si>
     <t>hippo_id</t>
   </si>
@@ -1926,6 +1926,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>lead_time_days</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
+  </si>
+  <si>
+    <t>Unknown</t>
   </si>
 </sst>
 </file>
@@ -2792,22 +2801,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3CBD6A-9948-ED40-867C-98E901C7D406}">
-  <dimension ref="A1:G312"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2829,8 +2841,11 @@
       <c r="G1" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>69516</v>
       </c>
@@ -2852,8 +2867,11 @@
       <c r="G2" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>69970</v>
       </c>
@@ -2875,8 +2893,11 @@
       <c r="G3" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>69935</v>
       </c>
@@ -2898,8 +2919,11 @@
       <c r="G4" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>69972</v>
       </c>
@@ -2921,8 +2945,11 @@
       <c r="G5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>69974</v>
       </c>
@@ -2944,8 +2971,11 @@
       <c r="G6" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>69975</v>
       </c>
@@ -2967,8 +2997,11 @@
       <c r="G7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>69976</v>
       </c>
@@ -2990,8 +3023,11 @@
       <c r="G8" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>69977</v>
       </c>
@@ -3013,8 +3049,11 @@
       <c r="G9" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>69936</v>
       </c>
@@ -3036,8 +3075,11 @@
       <c r="G10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>69937</v>
       </c>
@@ -3059,8 +3101,11 @@
       <c r="G11" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>69938</v>
       </c>
@@ -3082,8 +3127,11 @@
       <c r="G12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>69978</v>
       </c>
@@ -3105,8 +3153,11 @@
       <c r="G13" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>69955</v>
       </c>
@@ -3128,8 +3179,11 @@
       <c r="G14" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>69870</v>
       </c>
@@ -3151,8 +3205,11 @@
       <c r="G15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>69838</v>
       </c>
@@ -3174,8 +3231,11 @@
       <c r="G16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>13563</v>
       </c>
@@ -3197,8 +3257,11 @@
       <c r="G17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>69843</v>
       </c>
@@ -3220,8 +3283,11 @@
       <c r="G18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>69963</v>
       </c>
@@ -3243,8 +3309,11 @@
       <c r="G19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>70175</v>
       </c>
@@ -3266,8 +3335,11 @@
       <c r="G20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>69841</v>
       </c>
@@ -3289,8 +3361,11 @@
       <c r="G21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>69872</v>
       </c>
@@ -3312,8 +3387,11 @@
       <c r="G22" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>69574</v>
       </c>
@@ -3335,8 +3413,11 @@
       <c r="G23" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>69889</v>
       </c>
@@ -3358,8 +3439,11 @@
       <c r="G24" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>69878</v>
       </c>
@@ -3381,8 +3465,11 @@
       <c r="G25" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>69896</v>
       </c>
@@ -3404,8 +3491,11 @@
       <c r="G26" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>69914</v>
       </c>
@@ -3427,8 +3517,11 @@
       <c r="G27" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>69915</v>
       </c>
@@ -3450,8 +3543,11 @@
       <c r="G28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>69949</v>
       </c>
@@ -3473,8 +3569,11 @@
       <c r="G29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>69621</v>
       </c>
@@ -3496,8 +3595,11 @@
       <c r="G30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>69622</v>
       </c>
@@ -3519,8 +3621,11 @@
       <c r="G31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>69698</v>
       </c>
@@ -3542,8 +3647,11 @@
       <c r="G32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>69699</v>
       </c>
@@ -3565,8 +3673,11 @@
       <c r="G33" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>69585</v>
       </c>
@@ -3588,8 +3699,11 @@
       <c r="G34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>69586</v>
       </c>
@@ -3611,8 +3725,11 @@
       <c r="G35" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>69527</v>
       </c>
@@ -3634,8 +3751,11 @@
       <c r="G36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>69689</v>
       </c>
@@ -3657,8 +3777,11 @@
       <c r="G37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>69790</v>
       </c>
@@ -3680,8 +3803,11 @@
       <c r="G38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>69791</v>
       </c>
@@ -3703,8 +3829,11 @@
       <c r="G39" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>69775</v>
       </c>
@@ -3726,8 +3855,11 @@
       <c r="G40" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>69776</v>
       </c>
@@ -3749,8 +3881,11 @@
       <c r="G41" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>70215</v>
       </c>
@@ -3772,8 +3907,11 @@
       <c r="G42" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>70216</v>
       </c>
@@ -3795,8 +3933,11 @@
       <c r="G43" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>69681</v>
       </c>
@@ -3818,8 +3959,11 @@
       <c r="G44" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>69682</v>
       </c>
@@ -3841,8 +3985,11 @@
       <c r="G45" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>69578</v>
       </c>
@@ -3864,8 +4011,11 @@
       <c r="G46" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>69640</v>
       </c>
@@ -3887,8 +4037,11 @@
       <c r="G47" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>70680</v>
       </c>
@@ -3910,8 +4063,11 @@
       <c r="G48" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>70029</v>
       </c>
@@ -3933,8 +4089,11 @@
       <c r="G49" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>69522</v>
       </c>
@@ -3956,8 +4115,11 @@
       <c r="G50" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>70442</v>
       </c>
@@ -3979,8 +4141,11 @@
       <c r="G51" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>70111</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="G52" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>70112</v>
       </c>
@@ -4025,8 +4193,11 @@
       <c r="G53" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>70488</v>
       </c>
@@ -4048,8 +4219,11 @@
       <c r="G54" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>70489</v>
       </c>
@@ -4071,8 +4245,11 @@
       <c r="G55" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>70117</v>
       </c>
@@ -4094,8 +4271,11 @@
       <c r="G56" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>70298</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="G57" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>70218</v>
       </c>
@@ -4140,8 +4323,11 @@
       <c r="G58" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>70572</v>
       </c>
@@ -4163,8 +4349,11 @@
       <c r="G59" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>70284</v>
       </c>
@@ -4186,8 +4375,11 @@
       <c r="G60" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>70285</v>
       </c>
@@ -4209,8 +4401,11 @@
       <c r="G61" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>70002</v>
       </c>
@@ -4232,8 +4427,11 @@
       <c r="G62" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>70248</v>
       </c>
@@ -4255,8 +4453,11 @@
       <c r="G63" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>69725</v>
       </c>
@@ -4278,8 +4479,11 @@
       <c r="G64" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>70164</v>
       </c>
@@ -4301,8 +4505,11 @@
       <c r="G65" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>70078</v>
       </c>
@@ -4324,8 +4531,11 @@
       <c r="G66" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>70452</v>
       </c>
@@ -4347,8 +4557,11 @@
       <c r="G67" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>70641</v>
       </c>
@@ -4370,8 +4583,11 @@
       <c r="G68" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>70712</v>
       </c>
@@ -4393,8 +4609,11 @@
       <c r="G69" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>70324</v>
       </c>
@@ -4416,8 +4635,11 @@
       <c r="G70" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70090</v>
       </c>
@@ -4439,8 +4661,11 @@
       <c r="G71" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70689</v>
       </c>
@@ -4462,8 +4687,11 @@
       <c r="G72" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>70592</v>
       </c>
@@ -4485,8 +4713,11 @@
       <c r="G73" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>70464</v>
       </c>
@@ -4508,8 +4739,11 @@
       <c r="G74" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>70613</v>
       </c>
@@ -4531,8 +4765,11 @@
       <c r="G75" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>70260</v>
       </c>
@@ -4554,8 +4791,11 @@
       <c r="G76" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>93013</v>
       </c>
@@ -4577,8 +4817,11 @@
       <c r="G77" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>94707</v>
       </c>
@@ -4600,8 +4843,11 @@
       <c r="G78" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>131880</v>
       </c>
@@ -4623,8 +4869,11 @@
       <c r="G79" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>159920</v>
       </c>
@@ -4646,8 +4895,11 @@
       <c r="G80" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>183825</v>
       </c>
@@ -4669,8 +4921,11 @@
       <c r="G81" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>185311</v>
       </c>
@@ -4692,8 +4947,11 @@
       <c r="G82" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>208741</v>
       </c>
@@ -4715,8 +4973,11 @@
       <c r="G83" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>211604</v>
       </c>
@@ -4738,8 +4999,11 @@
       <c r="G84" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>240212</v>
       </c>
@@ -4761,8 +5025,11 @@
       <c r="G85" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>93012</v>
       </c>
@@ -4784,8 +5051,11 @@
       <c r="G86" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>94682</v>
       </c>
@@ -4807,8 +5077,11 @@
       <c r="G87" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>131886</v>
       </c>
@@ -4830,8 +5103,11 @@
       <c r="G88" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>183856</v>
       </c>
@@ -4853,8 +5129,11 @@
       <c r="G89" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>185325</v>
       </c>
@@ -4876,8 +5155,11 @@
       <c r="G90" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>211643</v>
       </c>
@@ -4899,8 +5181,11 @@
       <c r="G91" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>240198</v>
       </c>
@@ -4922,8 +5207,11 @@
       <c r="G92" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>93016</v>
       </c>
@@ -4945,8 +5233,11 @@
       <c r="G93" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>94705</v>
       </c>
@@ -4968,8 +5259,11 @@
       <c r="G94" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>131881</v>
       </c>
@@ -4991,8 +5285,11 @@
       <c r="G95" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>183868</v>
       </c>
@@ -5014,8 +5311,11 @@
       <c r="G96" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>185305</v>
       </c>
@@ -5037,8 +5337,11 @@
       <c r="G97" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>211618</v>
       </c>
@@ -5060,8 +5363,11 @@
       <c r="G98" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>240274</v>
       </c>
@@ -5083,8 +5389,11 @@
       <c r="G99" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>94678</v>
       </c>
@@ -5106,8 +5415,11 @@
       <c r="G100" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>101947</v>
       </c>
@@ -5129,8 +5441,11 @@
       <c r="G101" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>70370</v>
       </c>
@@ -5152,8 +5467,11 @@
       <c r="G102" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>70163</v>
       </c>
@@ -5175,8 +5493,11 @@
       <c r="G103" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>69803</v>
       </c>
@@ -5198,8 +5519,11 @@
       <c r="G104" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>70744</v>
       </c>
@@ -5221,8 +5545,11 @@
       <c r="G105" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>70371</v>
       </c>
@@ -5244,8 +5571,11 @@
       <c r="G106" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>69788</v>
       </c>
@@ -5267,8 +5597,11 @@
       <c r="G107" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>70183</v>
       </c>
@@ -5290,8 +5623,11 @@
       <c r="G108" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>70404</v>
       </c>
@@ -5313,8 +5649,11 @@
       <c r="G109" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>70514</v>
       </c>
@@ -5336,8 +5675,11 @@
       <c r="G110" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>70522</v>
       </c>
@@ -5359,8 +5701,11 @@
       <c r="G111" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>84027</v>
       </c>
@@ -5382,8 +5727,11 @@
       <c r="G112" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>89549</v>
       </c>
@@ -5405,8 +5753,11 @@
       <c r="G113" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>101931</v>
       </c>
@@ -5428,8 +5779,11 @@
       <c r="G114" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>109740</v>
       </c>
@@ -5451,8 +5805,11 @@
       <c r="G115" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>144382</v>
       </c>
@@ -5474,8 +5831,11 @@
       <c r="G116" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>84034</v>
       </c>
@@ -5497,8 +5857,11 @@
       <c r="G117" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>89544</v>
       </c>
@@ -5520,8 +5883,11 @@
       <c r="G118" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>101887</v>
       </c>
@@ -5543,8 +5909,11 @@
       <c r="G119" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>109747</v>
       </c>
@@ -5566,8 +5935,11 @@
       <c r="G120" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H120" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>144367</v>
       </c>
@@ -5589,8 +5961,11 @@
       <c r="G121" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H121" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>159803</v>
       </c>
@@ -5612,8 +5987,11 @@
       <c r="G122" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H122" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>174375</v>
       </c>
@@ -5635,8 +6013,11 @@
       <c r="G123" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H123" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>208737</v>
       </c>
@@ -5658,8 +6039,11 @@
       <c r="G124" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H124" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>84043</v>
       </c>
@@ -5681,8 +6065,11 @@
       <c r="G125" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H125" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>89550</v>
       </c>
@@ -5704,8 +6091,11 @@
       <c r="G126" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>101892</v>
       </c>
@@ -5727,8 +6117,11 @@
       <c r="G127" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>109717</v>
       </c>
@@ -5750,8 +6143,11 @@
       <c r="G128" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>144395</v>
       </c>
@@ -5773,8 +6169,11 @@
       <c r="G129" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>159810</v>
       </c>
@@ -5796,8 +6195,11 @@
       <c r="G130" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>174363</v>
       </c>
@@ -5819,8 +6221,11 @@
       <c r="G131" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>190296</v>
       </c>
@@ -5842,8 +6247,11 @@
       <c r="G132" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>208686</v>
       </c>
@@ -5865,8 +6273,11 @@
       <c r="G133" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>84022</v>
       </c>
@@ -5888,8 +6299,11 @@
       <c r="G134" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>89607</v>
       </c>
@@ -5911,8 +6325,11 @@
       <c r="G135" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>109768</v>
       </c>
@@ -5934,8 +6351,11 @@
       <c r="G136" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>69839</v>
       </c>
@@ -5957,8 +6377,11 @@
       <c r="G137" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>69846</v>
       </c>
@@ -5980,8 +6403,11 @@
       <c r="G138" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>70128</v>
       </c>
@@ -6003,8 +6429,11 @@
       <c r="G139" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>70286</v>
       </c>
@@ -6026,8 +6455,11 @@
       <c r="G140" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>70475</v>
       </c>
@@ -6049,8 +6481,11 @@
       <c r="G141" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>70635</v>
       </c>
@@ -6072,8 +6507,11 @@
       <c r="G142" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>70612</v>
       </c>
@@ -6095,8 +6533,11 @@
       <c r="G143" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>70003</v>
       </c>
@@ -6118,8 +6559,11 @@
       <c r="G144" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>117264</v>
       </c>
@@ -6141,8 +6585,11 @@
       <c r="G145" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>122915</v>
       </c>
@@ -6164,8 +6611,11 @@
       <c r="G146" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>208675</v>
       </c>
@@ -6187,8 +6637,11 @@
       <c r="G147" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H147" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>211531</v>
       </c>
@@ -6210,8 +6663,11 @@
       <c r="G148" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H148" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>213435</v>
       </c>
@@ -6233,8 +6689,11 @@
       <c r="G149" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H149" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>117265</v>
       </c>
@@ -6256,8 +6715,11 @@
       <c r="G150" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H150" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>122917</v>
       </c>
@@ -6279,8 +6741,11 @@
       <c r="G151" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H151" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>138447</v>
       </c>
@@ -6302,8 +6767,11 @@
       <c r="G152" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H152" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>159906</v>
       </c>
@@ -6325,8 +6793,11 @@
       <c r="G153" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H153" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>190384</v>
       </c>
@@ -6348,8 +6819,11 @@
       <c r="G154" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H154" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>213412</v>
       </c>
@@ -6371,8 +6845,11 @@
       <c r="G155" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H155" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>117268</v>
       </c>
@@ -6394,8 +6871,11 @@
       <c r="G156" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H156" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>122916</v>
       </c>
@@ -6417,8 +6897,11 @@
       <c r="G157" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H157" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>213400</v>
       </c>
@@ -6440,8 +6923,11 @@
       <c r="G158" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H158" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>69515</v>
       </c>
@@ -6463,8 +6949,11 @@
       <c r="G159" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H159" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>69802</v>
       </c>
@@ -6486,8 +6975,11 @@
       <c r="G160" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H160" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>70368</v>
       </c>
@@ -6509,8 +7001,11 @@
       <c r="G161" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H161" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>70401</v>
       </c>
@@ -6532,8 +7027,11 @@
       <c r="G162" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H162" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>70583</v>
       </c>
@@ -6555,8 +7053,11 @@
       <c r="G163" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H163" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>70474</v>
       </c>
@@ -6578,8 +7079,11 @@
       <c r="G164" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H164" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>70418</v>
       </c>
@@ -6601,8 +7105,11 @@
       <c r="G165" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H165" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>70638</v>
       </c>
@@ -6624,8 +7131,11 @@
       <c r="G166" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H166" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>70091</v>
       </c>
@@ -6647,8 +7157,11 @@
       <c r="G167" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H167" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>70688</v>
       </c>
@@ -6670,8 +7183,11 @@
       <c r="G168" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H168" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>70535</v>
       </c>
@@ -6693,8 +7209,11 @@
       <c r="G169" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H169" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>70250</v>
       </c>
@@ -6716,8 +7235,11 @@
       <c r="G170" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H170" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>70254</v>
       </c>
@@ -6739,8 +7261,11 @@
       <c r="G171" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H171" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>77241</v>
       </c>
@@ -6762,8 +7287,11 @@
       <c r="G172" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H172" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>117423</v>
       </c>
@@ -6785,8 +7313,11 @@
       <c r="G173" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H173" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>122809</v>
       </c>
@@ -6808,8 +7339,11 @@
       <c r="G174" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H174" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>69634</v>
       </c>
@@ -6831,8 +7365,11 @@
       <c r="G175" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H175" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174359</v>
       </c>
@@ -6854,8 +7391,11 @@
       <c r="G176" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H176" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>195678</v>
       </c>
@@ -6877,8 +7417,11 @@
       <c r="G177" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H177" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>77227</v>
       </c>
@@ -6900,8 +7443,11 @@
       <c r="G178" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H178" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>99802</v>
       </c>
@@ -6923,8 +7469,11 @@
       <c r="G179" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H179" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>105593</v>
       </c>
@@ -6946,8 +7495,11 @@
       <c r="G180" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H180" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>117432</v>
       </c>
@@ -6969,8 +7521,11 @@
       <c r="G181" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H181" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>122830</v>
       </c>
@@ -6992,8 +7547,11 @@
       <c r="G182" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H182" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>105563</v>
       </c>
@@ -7015,8 +7573,11 @@
       <c r="G183" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H183" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>195668</v>
       </c>
@@ -7038,8 +7599,11 @@
       <c r="G184" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H184" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>138469</v>
       </c>
@@ -7061,8 +7625,11 @@
       <c r="G185" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H185" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>213511</v>
       </c>
@@ -7084,8 +7651,11 @@
       <c r="G186" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H186" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>77295</v>
       </c>
@@ -7107,8 +7677,11 @@
       <c r="G187" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H187" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>195682</v>
       </c>
@@ -7130,8 +7703,11 @@
       <c r="G188" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H188" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>213504</v>
       </c>
@@ -7153,8 +7729,11 @@
       <c r="G189" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H189" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>77229</v>
       </c>
@@ -7176,8 +7755,11 @@
       <c r="G190" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H190" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>69871</v>
       </c>
@@ -7199,8 +7781,11 @@
       <c r="G191" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H191" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>69683</v>
       </c>
@@ -7222,8 +7807,11 @@
       <c r="G192" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H192" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>70745</v>
       </c>
@@ -7245,8 +7833,11 @@
       <c r="G193" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H193" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>69755</v>
       </c>
@@ -7268,8 +7859,11 @@
       <c r="G194" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H194" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>70600</v>
       </c>
@@ -7291,8 +7885,11 @@
       <c r="G195" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H195" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>70030</v>
       </c>
@@ -7314,8 +7911,11 @@
       <c r="G196" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H196" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>69712</v>
       </c>
@@ -7337,8 +7937,11 @@
       <c r="G197" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H197" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>70089</v>
       </c>
@@ -7360,8 +7963,11 @@
       <c r="G198" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H198" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>70515</v>
       </c>
@@ -7383,8 +7989,11 @@
       <c r="G199" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H199" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>70533</v>
       </c>
@@ -7406,8 +8015,11 @@
       <c r="G200" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H200" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>89449</v>
       </c>
@@ -7429,8 +8041,11 @@
       <c r="G201" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H201" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>124981</v>
       </c>
@@ -7452,8 +8067,11 @@
       <c r="G202" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H202" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>128725</v>
       </c>
@@ -7475,8 +8093,11 @@
       <c r="G203" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H203" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>128768</v>
       </c>
@@ -7498,8 +8119,11 @@
       <c r="G204" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H204" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>77332</v>
       </c>
@@ -7521,8 +8145,11 @@
       <c r="G205" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H205" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>124976</v>
       </c>
@@ -7544,8 +8171,11 @@
       <c r="G206" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H206" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>72</v>
       </c>
@@ -7567,8 +8197,11 @@
       <c r="G207" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H207" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>128742</v>
       </c>
@@ -7590,8 +8223,11 @@
       <c r="G208" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H208" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>77328</v>
       </c>
@@ -7613,8 +8249,11 @@
       <c r="G209" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H209" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>84125</v>
       </c>
@@ -7636,8 +8275,11 @@
       <c r="G210" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H210" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>109801</v>
       </c>
@@ -7659,8 +8301,11 @@
       <c r="G211" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H211" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>124964</v>
       </c>
@@ -7682,8 +8327,11 @@
       <c r="G212" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H212" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>128704</v>
       </c>
@@ -7705,8 +8353,11 @@
       <c r="G213" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H213" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>128772</v>
       </c>
@@ -7728,8 +8379,11 @@
       <c r="G214" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H214" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>105568</v>
       </c>
@@ -7751,8 +8405,11 @@
       <c r="G215" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H215" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>125031</v>
       </c>
@@ -7774,8 +8431,11 @@
       <c r="G216" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H216" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>77329</v>
       </c>
@@ -7797,8 +8457,11 @@
       <c r="G217" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H217" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>128780</v>
       </c>
@@ -7820,8 +8483,11 @@
       <c r="G218" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H218" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>69777</v>
       </c>
@@ -7843,8 +8509,11 @@
       <c r="G219" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H219" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>70009</v>
       </c>
@@ -7866,8 +8535,11 @@
       <c r="G220" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H220" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>70151</v>
       </c>
@@ -7889,8 +8561,11 @@
       <c r="G221" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H221" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>70399</v>
       </c>
@@ -7912,8 +8587,11 @@
       <c r="G222" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H222" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>165572</v>
       </c>
@@ -7935,8 +8613,11 @@
       <c r="G223" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H223" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>70259</v>
       </c>
@@ -7958,8 +8639,11 @@
       <c r="G224" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H224" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>70172</v>
       </c>
@@ -7981,8 +8665,11 @@
       <c r="G225" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H225" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>70184</v>
       </c>
@@ -8004,8 +8691,11 @@
       <c r="G226" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H226" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>128723</v>
       </c>
@@ -8027,8 +8717,11 @@
       <c r="G227" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H227" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>70262</v>
       </c>
@@ -8050,8 +8743,11 @@
       <c r="G228" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H228" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>105440</v>
       </c>
@@ -8073,8 +8769,11 @@
       <c r="G229" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H229" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>105528</v>
       </c>
@@ -8096,8 +8795,11 @@
       <c r="G230" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H230" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>125013</v>
       </c>
@@ -8119,8 +8821,11 @@
       <c r="G231" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H231" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>125012</v>
       </c>
@@ -8142,8 +8847,11 @@
       <c r="G232" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H232" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>125000</v>
       </c>
@@ -8165,8 +8873,11 @@
       <c r="G233" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H233" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>105428</v>
       </c>
@@ -8188,8 +8899,11 @@
       <c r="G234" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H234" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>105533</v>
       </c>
@@ -8211,8 +8925,11 @@
       <c r="G235" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H235" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>69859</v>
       </c>
@@ -8234,8 +8951,11 @@
       <c r="G236" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H236" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>69761</v>
       </c>
@@ -8257,8 +8977,11 @@
       <c r="G237" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H237" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>70064</v>
       </c>
@@ -8280,8 +9003,11 @@
       <c r="G238" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H238" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>70165</v>
       </c>
@@ -8303,8 +9029,11 @@
       <c r="G239" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H239" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>225059</v>
       </c>
@@ -8326,8 +9055,11 @@
       <c r="G240" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H240" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>155237</v>
       </c>
@@ -8349,8 +9081,11 @@
       <c r="G241" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H241" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>105620</v>
       </c>
@@ -8372,8 +9107,11 @@
       <c r="G242" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H242" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>225106</v>
       </c>
@@ -8395,8 +9133,11 @@
       <c r="G243" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H243" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>70251</v>
       </c>
@@ -8418,8 +9159,11 @@
       <c r="G244" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H244" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>113347</v>
       </c>
@@ -8441,8 +9185,11 @@
       <c r="G245" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H245" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>113303</v>
       </c>
@@ -8464,8 +9211,11 @@
       <c r="G246" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H246" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>113300</v>
       </c>
@@ -8487,8 +9237,11 @@
       <c r="G247" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H247" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>113297</v>
       </c>
@@ -8510,8 +9263,11 @@
       <c r="G248" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H248" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>113208</v>
       </c>
@@ -8533,8 +9289,11 @@
       <c r="G249" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H249" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>113320</v>
       </c>
@@ -8556,8 +9315,11 @@
       <c r="G250" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H250" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>206888</v>
       </c>
@@ -8579,8 +9341,11 @@
       <c r="G251" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H251" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>231064</v>
       </c>
@@ -8602,8 +9367,11 @@
       <c r="G252" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H252" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>155322</v>
       </c>
@@ -8625,8 +9393,11 @@
       <c r="G253" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H253" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>231090</v>
       </c>
@@ -8648,8 +9419,11 @@
       <c r="G254" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H254" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>198336</v>
       </c>
@@ -8671,8 +9445,11 @@
       <c r="G255" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H255" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>201136</v>
       </c>
@@ -8694,8 +9471,11 @@
       <c r="G256" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H256" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>198328</v>
       </c>
@@ -8717,8 +9497,11 @@
       <c r="G257" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H257" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>113301</v>
       </c>
@@ -8740,8 +9523,11 @@
       <c r="G258" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H258" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>198285</v>
       </c>
@@ -8763,8 +9549,11 @@
       <c r="G259" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H259" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>113323</v>
       </c>
@@ -8786,8 +9575,11 @@
       <c r="G260" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H260" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>113298</v>
       </c>
@@ -8809,8 +9601,11 @@
       <c r="G261" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H261" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>115404</v>
       </c>
@@ -8832,8 +9627,11 @@
       <c r="G262" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H262" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>113341</v>
       </c>
@@ -8855,8 +9653,11 @@
       <c r="G263" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H263" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>113314</v>
       </c>
@@ -8878,8 +9679,11 @@
       <c r="G264" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H264" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>113307</v>
       </c>
@@ -8901,8 +9705,11 @@
       <c r="G265" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H265" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>113343</v>
       </c>
@@ -8924,8 +9731,11 @@
       <c r="G266" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H266" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>113335</v>
       </c>
@@ -8947,8 +9757,11 @@
       <c r="G267" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H267" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>113329</v>
       </c>
@@ -8970,8 +9783,11 @@
       <c r="G268" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H268" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>113316</v>
       </c>
@@ -8993,8 +9809,11 @@
       <c r="G269" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H269" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>113302</v>
       </c>
@@ -9016,8 +9835,11 @@
       <c r="G270" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H270" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>113344</v>
       </c>
@@ -9039,8 +9861,11 @@
       <c r="G271" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H271" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>113304</v>
       </c>
@@ -9062,8 +9887,11 @@
       <c r="G272" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H272" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>113340</v>
       </c>
@@ -9085,8 +9913,11 @@
       <c r="G273" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H273" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>113327</v>
       </c>
@@ -9108,8 +9939,11 @@
       <c r="G274" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H274" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>70113</v>
       </c>
@@ -9131,8 +9965,11 @@
       <c r="G275" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H275" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>113260</v>
       </c>
@@ -9154,8 +9991,11 @@
       <c r="G276" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H276" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>113269</v>
       </c>
@@ -9177,8 +10017,11 @@
       <c r="G277" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H277" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>113294</v>
       </c>
@@ -9200,8 +10043,11 @@
       <c r="G278" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H278" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>113296</v>
       </c>
@@ -9223,8 +10069,11 @@
       <c r="G279" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H279" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>113258</v>
       </c>
@@ -9246,8 +10095,11 @@
       <c r="G280" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H280" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>113348</v>
       </c>
@@ -9269,8 +10121,11 @@
       <c r="G281" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H281" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>113259</v>
       </c>
@@ -9292,8 +10147,11 @@
       <c r="G282" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H282" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>70121</v>
       </c>
@@ -9315,8 +10173,11 @@
       <c r="G283" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H283" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>70312</v>
       </c>
@@ -9338,8 +10199,11 @@
       <c r="G284" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H284" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>113293</v>
       </c>
@@ -9361,8 +10225,11 @@
       <c r="G285" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H285" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>70108</v>
       </c>
@@ -9384,8 +10251,11 @@
       <c r="G286" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H286" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>70311</v>
       </c>
@@ -9407,8 +10277,11 @@
       <c r="G287" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H287" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>113263</v>
       </c>
@@ -9430,8 +10303,11 @@
       <c r="G288" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H288" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>113287</v>
       </c>
@@ -9453,8 +10329,11 @@
       <c r="G289" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H289" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>113290</v>
       </c>
@@ -9476,8 +10355,11 @@
       <c r="G290" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H290" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>113274</v>
       </c>
@@ -9499,8 +10381,11 @@
       <c r="G291" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H291" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>113264</v>
       </c>
@@ -9522,8 +10407,11 @@
       <c r="G292" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H292" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>113286</v>
       </c>
@@ -9545,8 +10433,11 @@
       <c r="G293" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H293" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>113273</v>
       </c>
@@ -9568,8 +10459,11 @@
       <c r="G294" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H294" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>113291</v>
       </c>
@@ -9591,8 +10485,11 @@
       <c r="G295" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H295" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>70115</v>
       </c>
@@ -9614,8 +10511,11 @@
       <c r="G296" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H296" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>206882</v>
       </c>
@@ -9637,8 +10537,11 @@
       <c r="G297" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H297" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>70323</v>
       </c>
@@ -9660,8 +10563,11 @@
       <c r="G298" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H298" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>70123</v>
       </c>
@@ -9683,8 +10589,11 @@
       <c r="G299" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H299" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>113201</v>
       </c>
@@ -9706,8 +10615,11 @@
       <c r="G300" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H300" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>215774</v>
       </c>
@@ -9729,8 +10641,11 @@
       <c r="G301" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H301" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>234634</v>
       </c>
@@ -9752,8 +10667,11 @@
       <c r="G302" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H302" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>70110</v>
       </c>
@@ -9775,8 +10693,11 @@
       <c r="G303" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H303" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>70327</v>
       </c>
@@ -9798,8 +10719,11 @@
       <c r="G304" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H304" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>70114</v>
       </c>
@@ -9821,8 +10745,11 @@
       <c r="G305" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H305" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>70126</v>
       </c>
@@ -9844,8 +10771,11 @@
       <c r="G306" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H306" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>70329</v>
       </c>
@@ -9867,8 +10797,11 @@
       <c r="G307" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H307" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>231057</v>
       </c>
@@ -9890,8 +10823,11 @@
       <c r="G308" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H308" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>70037</v>
       </c>
@@ -9913,8 +10849,11 @@
       <c r="G309" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H309" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>70313</v>
       </c>
@@ -9936,8 +10875,11 @@
       <c r="G310" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H310" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>133385</v>
       </c>
@@ -9959,8 +10901,11 @@
       <c r="G311" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H311" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>70232</v>
       </c>
@@ -9982,8 +10927,18 @@
       <c r="G312" s="1">
         <v>3</v>
       </c>
+      <c r="H312" t="s">
+        <v>632</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H312" xr:uid="{CD3CBD6A-9948-ED40-867C-98E901C7D406}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="15"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E312">
     <sortCondition ref="C2:C312"/>
   </sortState>

--- a/quotes/FLAVI-NS5-RdRp-t3c-i1a-Enamine quote 0FWIO6Z reactants Q2011189 EUR.xlsx
+++ b/quotes/FLAVI-NS5-RdRp-t3c-i1a-Enamine quote 0FWIO6Z reactants Q2011189 EUR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tfb64483/Data/RdRp_FFF/quotes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4982F6D4-902A-7146-A291-E7011691A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C34C18-AB23-A440-BA9F-AF30A1552030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{1A2EB696-42B4-F849-B20B-26AFFA9EBC84}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" xr2:uid="{1A2EB696-42B4-F849-B20B-26AFFA9EBC84}"/>
   </bookViews>
   <sheets>
     <sheet name="FLAVIRdRp-t3c-i1a-Enamine quote" sheetId="1" r:id="rId1"/>
@@ -1919,22 +1919,22 @@
     <t>quoted_amount_mg</t>
   </si>
   <si>
-    <t>price_per_quoted_amount_eur</t>
-  </si>
-  <si>
     <t>lead_time_weeks</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>lead_time_days</t>
-  </si>
-  <si>
     <t>Unavailable</t>
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>Price, EUR</t>
+  </si>
+  <si>
+    <t>availability</t>
   </si>
 </sst>
 </file>
@@ -2804,8 +2804,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H312"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2836,13 +2836,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>628</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2868,7 +2868,7 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2894,7 +2894,7 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2946,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2972,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2998,7 +2998,7 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3024,7 +3024,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3076,7 +3076,7 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3102,7 +3102,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3128,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3154,7 +3154,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3180,7 +3180,7 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3206,7 +3206,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3232,7 +3232,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3258,7 +3258,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3284,7 +3284,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3310,7 +3310,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3362,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -3388,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3414,7 +3414,7 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3440,7 +3440,7 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -3492,7 +3492,7 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3518,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3570,7 +3570,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3596,7 +3596,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,7 +3622,7 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3648,7 +3648,7 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -3674,7 +3674,7 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -3726,7 +3726,7 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -3804,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -3830,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -3856,7 +3856,7 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3882,7 +3882,7 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3908,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H43" t="s">
         <v>629</v>
-      </c>
-      <c r="H43" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3960,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -4012,7 +4012,7 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -4038,7 +4038,7 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -4064,7 +4064,7 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -4090,7 +4090,7 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -4116,7 +4116,7 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -4142,7 +4142,7 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -4168,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -4194,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -4220,7 +4220,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -4246,7 +4246,7 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -4272,7 +4272,7 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -4298,7 +4298,7 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -4324,7 +4324,7 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -4350,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -4376,7 +4376,7 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -4399,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H61" t="s">
         <v>629</v>
-      </c>
-      <c r="H61" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4428,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
@@ -4454,7 +4454,7 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -4480,7 +4480,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -4506,7 +4506,7 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -4532,7 +4532,7 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -4558,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
@@ -4584,7 +4584,7 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -4610,7 +4610,7 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -4636,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -4662,7 +4662,7 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -4688,7 +4688,7 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -4714,7 +4714,7 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -4740,7 +4740,7 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -4792,7 +4792,7 @@
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -4818,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
@@ -4870,7 +4870,7 @@
         <v>3</v>
       </c>
       <c r="H79" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
@@ -4896,7 +4896,7 @@
         <v>3</v>
       </c>
       <c r="H80" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
@@ -4922,7 +4922,7 @@
         <v>3</v>
       </c>
       <c r="H81" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
@@ -4948,7 +4948,7 @@
         <v>3</v>
       </c>
       <c r="H82" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
@@ -4974,7 +4974,7 @@
         <v>3</v>
       </c>
       <c r="H83" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
@@ -5000,7 +5000,7 @@
         <v>3</v>
       </c>
       <c r="H84" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
@@ -5026,7 +5026,7 @@
         <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -5052,7 +5052,7 @@
         <v>3</v>
       </c>
       <c r="H86" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
@@ -5078,7 +5078,7 @@
         <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
@@ -5104,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
@@ -5130,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="H89" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -5156,7 +5156,7 @@
         <v>3</v>
       </c>
       <c r="H90" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -5182,7 +5182,7 @@
         <v>3</v>
       </c>
       <c r="H91" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
@@ -5208,7 +5208,7 @@
         <v>3</v>
       </c>
       <c r="H92" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -5234,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -5260,7 +5260,7 @@
         <v>3</v>
       </c>
       <c r="H94" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -5286,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="H95" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
@@ -5312,7 +5312,7 @@
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -5338,7 +5338,7 @@
         <v>3</v>
       </c>
       <c r="H97" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
@@ -5364,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="H98" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
@@ -5390,7 +5390,7 @@
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
@@ -5416,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="H100" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
@@ -5442,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="H101" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
@@ -5468,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
@@ -5494,7 +5494,7 @@
         <v>3</v>
       </c>
       <c r="H103" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -5520,7 +5520,7 @@
         <v>3</v>
       </c>
       <c r="H104" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
@@ -5546,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="H105" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
@@ -5572,7 +5572,7 @@
         <v>3</v>
       </c>
       <c r="H106" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
@@ -5598,7 +5598,7 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
@@ -5624,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="H108" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
@@ -5650,7 +5650,7 @@
         <v>3</v>
       </c>
       <c r="H109" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -5676,7 +5676,7 @@
         <v>3</v>
       </c>
       <c r="H110" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
@@ -5702,7 +5702,7 @@
         <v>3</v>
       </c>
       <c r="H111" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -5728,7 +5728,7 @@
         <v>3</v>
       </c>
       <c r="H112" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
@@ -5754,7 +5754,7 @@
         <v>3</v>
       </c>
       <c r="H113" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
@@ -5780,7 +5780,7 @@
         <v>3</v>
       </c>
       <c r="H114" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
@@ -5806,7 +5806,7 @@
         <v>3</v>
       </c>
       <c r="H115" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -5832,7 +5832,7 @@
         <v>3</v>
       </c>
       <c r="H116" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -5858,7 +5858,7 @@
         <v>3</v>
       </c>
       <c r="H117" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -5884,7 +5884,7 @@
         <v>3</v>
       </c>
       <c r="H118" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
@@ -5910,7 +5910,7 @@
         <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -5936,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="H120" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
@@ -5962,7 +5962,7 @@
         <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -5988,7 +5988,7 @@
         <v>3</v>
       </c>
       <c r="H122" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
@@ -6014,7 +6014,7 @@
         <v>3</v>
       </c>
       <c r="H123" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
@@ -6040,7 +6040,7 @@
         <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
@@ -6066,7 +6066,7 @@
         <v>3</v>
       </c>
       <c r="H125" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -6092,7 +6092,7 @@
         <v>3</v>
       </c>
       <c r="H126" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
@@ -6118,7 +6118,7 @@
         <v>3</v>
       </c>
       <c r="H127" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
@@ -6144,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="H128" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -6170,7 +6170,7 @@
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -6196,7 +6196,7 @@
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6219,10 +6219,10 @@
         <v>0</v>
       </c>
       <c r="G131" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H131" t="s">
         <v>629</v>
-      </c>
-      <c r="H131" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -6248,7 +6248,7 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -6274,7 +6274,7 @@
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -6300,7 +6300,7 @@
         <v>3</v>
       </c>
       <c r="H134" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
@@ -6326,7 +6326,7 @@
         <v>3</v>
       </c>
       <c r="H135" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -6352,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="H136" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -6378,7 +6378,7 @@
         <v>3</v>
       </c>
       <c r="H137" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -6404,7 +6404,7 @@
         <v>3</v>
       </c>
       <c r="H138" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -6430,7 +6430,7 @@
         <v>3</v>
       </c>
       <c r="H139" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -6456,7 +6456,7 @@
         <v>3</v>
       </c>
       <c r="H140" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -6482,7 +6482,7 @@
         <v>3</v>
       </c>
       <c r="H141" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6505,10 +6505,10 @@
         <v>0</v>
       </c>
       <c r="G142" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H142" t="s">
         <v>629</v>
-      </c>
-      <c r="H142" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -6534,7 +6534,7 @@
         <v>3</v>
       </c>
       <c r="H143" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -6560,7 +6560,7 @@
         <v>3</v>
       </c>
       <c r="H144" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -6586,7 +6586,7 @@
         <v>3</v>
       </c>
       <c r="H145" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -6612,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="H146" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -6638,7 +6638,7 @@
         <v>3</v>
       </c>
       <c r="H147" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -6664,7 +6664,7 @@
         <v>3</v>
       </c>
       <c r="H148" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -6690,7 +6690,7 @@
         <v>3</v>
       </c>
       <c r="H149" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -6716,7 +6716,7 @@
         <v>3</v>
       </c>
       <c r="H150" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -6742,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="H151" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -6768,7 +6768,7 @@
         <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -6794,7 +6794,7 @@
         <v>3</v>
       </c>
       <c r="H153" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -6820,7 +6820,7 @@
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -6843,10 +6843,10 @@
         <v>0</v>
       </c>
       <c r="G155" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H155" t="s">
         <v>629</v>
-      </c>
-      <c r="H155" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
@@ -6872,7 +6872,7 @@
         <v>3</v>
       </c>
       <c r="H156" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
@@ -6898,7 +6898,7 @@
         <v>3</v>
       </c>
       <c r="H157" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -6924,7 +6924,7 @@
         <v>3</v>
       </c>
       <c r="H158" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="H159" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
@@ -6976,7 +6976,7 @@
         <v>3</v>
       </c>
       <c r="H160" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
@@ -7002,7 +7002,7 @@
         <v>3</v>
       </c>
       <c r="H161" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
@@ -7028,7 +7028,7 @@
         <v>3</v>
       </c>
       <c r="H162" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="H163" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
@@ -7080,7 +7080,7 @@
         <v>3</v>
       </c>
       <c r="H164" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -7106,7 +7106,7 @@
         <v>3</v>
       </c>
       <c r="H165" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
@@ -7132,7 +7132,7 @@
         <v>3</v>
       </c>
       <c r="H166" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
@@ -7158,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="H167" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
@@ -7184,7 +7184,7 @@
         <v>3</v>
       </c>
       <c r="H168" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
@@ -7210,7 +7210,7 @@
         <v>3</v>
       </c>
       <c r="H169" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
@@ -7236,7 +7236,7 @@
         <v>3</v>
       </c>
       <c r="H170" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
@@ -7262,7 +7262,7 @@
         <v>3</v>
       </c>
       <c r="H171" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
@@ -7288,7 +7288,7 @@
         <v>3</v>
       </c>
       <c r="H172" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
@@ -7314,7 +7314,7 @@
         <v>3</v>
       </c>
       <c r="H173" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
@@ -7340,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="H174" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
@@ -7366,7 +7366,7 @@
         <v>3</v>
       </c>
       <c r="H175" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
@@ -7392,7 +7392,7 @@
         <v>3</v>
       </c>
       <c r="H176" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
@@ -7418,7 +7418,7 @@
         <v>3</v>
       </c>
       <c r="H177" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
@@ -7444,7 +7444,7 @@
         <v>3</v>
       </c>
       <c r="H178" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
@@ -7470,7 +7470,7 @@
         <v>3</v>
       </c>
       <c r="H179" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
@@ -7496,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="H180" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
@@ -7522,7 +7522,7 @@
         <v>3</v>
       </c>
       <c r="H181" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
@@ -7548,7 +7548,7 @@
         <v>3</v>
       </c>
       <c r="H182" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
@@ -7574,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="H183" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
@@ -7600,7 +7600,7 @@
         <v>3</v>
       </c>
       <c r="H184" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -7623,10 +7623,10 @@
         <v>0</v>
       </c>
       <c r="G185" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H185" t="s">
         <v>629</v>
-      </c>
-      <c r="H185" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
@@ -7652,7 +7652,7 @@
         <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
@@ -7678,7 +7678,7 @@
         <v>3</v>
       </c>
       <c r="H187" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
@@ -7704,7 +7704,7 @@
         <v>3</v>
       </c>
       <c r="H188" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
@@ -7730,7 +7730,7 @@
         <v>3</v>
       </c>
       <c r="H189" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
@@ -7756,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="H190" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
@@ -7782,7 +7782,7 @@
         <v>3</v>
       </c>
       <c r="H191" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
@@ -7808,7 +7808,7 @@
         <v>3</v>
       </c>
       <c r="H192" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -7834,7 +7834,7 @@
         <v>3</v>
       </c>
       <c r="H193" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -7860,7 +7860,7 @@
         <v>3</v>
       </c>
       <c r="H194" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7886,7 +7886,7 @@
         <v>3</v>
       </c>
       <c r="H195" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7912,7 +7912,7 @@
         <v>3</v>
       </c>
       <c r="H196" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7938,7 +7938,7 @@
         <v>3</v>
       </c>
       <c r="H197" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7964,7 +7964,7 @@
         <v>3</v>
       </c>
       <c r="H198" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7990,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="H199" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -8016,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="H200" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -8042,7 +8042,7 @@
         <v>3</v>
       </c>
       <c r="H201" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -8068,7 +8068,7 @@
         <v>3</v>
       </c>
       <c r="H202" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -8094,7 +8094,7 @@
         <v>3</v>
       </c>
       <c r="H203" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -8120,7 +8120,7 @@
         <v>3</v>
       </c>
       <c r="H204" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="H205" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -8172,7 +8172,7 @@
         <v>3</v>
       </c>
       <c r="H206" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -8198,7 +8198,7 @@
         <v>3</v>
       </c>
       <c r="H207" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -8224,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="H208" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -8250,7 +8250,7 @@
         <v>3</v>
       </c>
       <c r="H209" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
@@ -8276,7 +8276,7 @@
         <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -8302,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="H211" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="H212" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
@@ -8354,7 +8354,7 @@
         <v>3</v>
       </c>
       <c r="H213" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -8380,7 +8380,7 @@
         <v>3</v>
       </c>
       <c r="H214" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -8406,7 +8406,7 @@
         <v>3</v>
       </c>
       <c r="H215" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
@@ -8432,7 +8432,7 @@
         <v>3</v>
       </c>
       <c r="H216" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -8458,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="H217" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>3</v>
       </c>
       <c r="H218" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
@@ -8510,7 +8510,7 @@
         <v>3</v>
       </c>
       <c r="H219" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -8536,7 +8536,7 @@
         <v>3</v>
       </c>
       <c r="H220" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -8562,7 +8562,7 @@
         <v>3</v>
       </c>
       <c r="H221" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -8588,7 +8588,7 @@
         <v>3</v>
       </c>
       <c r="H222" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="H223" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -8640,7 +8640,7 @@
         <v>3</v>
       </c>
       <c r="H224" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -8666,7 +8666,7 @@
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -8692,7 +8692,7 @@
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
@@ -8718,7 +8718,7 @@
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -8744,7 +8744,7 @@
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
@@ -8770,7 +8770,7 @@
         <v>3</v>
       </c>
       <c r="H229" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -8796,7 +8796,7 @@
         <v>3</v>
       </c>
       <c r="H230" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -8822,7 +8822,7 @@
         <v>3</v>
       </c>
       <c r="H231" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
@@ -8848,7 +8848,7 @@
         <v>3</v>
       </c>
       <c r="H232" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
@@ -8874,7 +8874,7 @@
         <v>3</v>
       </c>
       <c r="H233" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
@@ -8900,7 +8900,7 @@
         <v>3</v>
       </c>
       <c r="H234" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
@@ -8926,7 +8926,7 @@
         <v>3</v>
       </c>
       <c r="H235" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -8952,7 +8952,7 @@
         <v>3</v>
       </c>
       <c r="H236" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -8978,7 +8978,7 @@
         <v>3</v>
       </c>
       <c r="H237" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -9004,7 +9004,7 @@
         <v>3</v>
       </c>
       <c r="H238" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -9030,7 +9030,7 @@
         <v>3</v>
       </c>
       <c r="H239" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -9056,7 +9056,7 @@
         <v>3</v>
       </c>
       <c r="H240" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -9082,7 +9082,7 @@
         <v>3</v>
       </c>
       <c r="H241" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -9108,7 +9108,7 @@
         <v>3</v>
       </c>
       <c r="H242" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -9134,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="H243" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -9160,7 +9160,7 @@
         <v>3</v>
       </c>
       <c r="H244" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -9186,7 +9186,7 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -9212,7 +9212,7 @@
         <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -9238,7 +9238,7 @@
         <v>3</v>
       </c>
       <c r="H247" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -9264,7 +9264,7 @@
         <v>3</v>
       </c>
       <c r="H248" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -9290,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="H249" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -9316,7 +9316,7 @@
         <v>3</v>
       </c>
       <c r="H250" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
@@ -9342,7 +9342,7 @@
         <v>3</v>
       </c>
       <c r="H251" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -9368,7 +9368,7 @@
         <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -9394,7 +9394,7 @@
         <v>3</v>
       </c>
       <c r="H253" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -9420,7 +9420,7 @@
         <v>3</v>
       </c>
       <c r="H254" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -9446,7 +9446,7 @@
         <v>3</v>
       </c>
       <c r="H255" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -9472,7 +9472,7 @@
         <v>3</v>
       </c>
       <c r="H256" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
@@ -9498,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="H257" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
@@ -9524,7 +9524,7 @@
         <v>3</v>
       </c>
       <c r="H258" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
@@ -9550,7 +9550,7 @@
         <v>3</v>
       </c>
       <c r="H259" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
@@ -9576,7 +9576,7 @@
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
@@ -9602,7 +9602,7 @@
         <v>3</v>
       </c>
       <c r="H261" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
         <v>3</v>
       </c>
       <c r="H262" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
@@ -9654,7 +9654,7 @@
         <v>3</v>
       </c>
       <c r="H263" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
@@ -9680,7 +9680,7 @@
         <v>3</v>
       </c>
       <c r="H264" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
@@ -9706,7 +9706,7 @@
         <v>3</v>
       </c>
       <c r="H265" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
@@ -9732,7 +9732,7 @@
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
@@ -9758,7 +9758,7 @@
         <v>3</v>
       </c>
       <c r="H267" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
@@ -9784,7 +9784,7 @@
         <v>3</v>
       </c>
       <c r="H268" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
@@ -9810,7 +9810,7 @@
         <v>3</v>
       </c>
       <c r="H269" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
@@ -9836,7 +9836,7 @@
         <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
@@ -9862,7 +9862,7 @@
         <v>3</v>
       </c>
       <c r="H271" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
@@ -9888,7 +9888,7 @@
         <v>3</v>
       </c>
       <c r="H272" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
@@ -9914,7 +9914,7 @@
         <v>3</v>
       </c>
       <c r="H273" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
@@ -9940,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="H274" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
@@ -9966,7 +9966,7 @@
         <v>3</v>
       </c>
       <c r="H275" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
@@ -9992,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="H276" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
@@ -10018,7 +10018,7 @@
         <v>3</v>
       </c>
       <c r="H277" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
@@ -10044,7 +10044,7 @@
         <v>3</v>
       </c>
       <c r="H278" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
@@ -10070,7 +10070,7 @@
         <v>3</v>
       </c>
       <c r="H279" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
@@ -10093,10 +10093,10 @@
         <v>0</v>
       </c>
       <c r="G280" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H280" t="s">
         <v>629</v>
-      </c>
-      <c r="H280" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
@@ -10122,7 +10122,7 @@
         <v>3</v>
       </c>
       <c r="H281" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
@@ -10148,7 +10148,7 @@
         <v>3</v>
       </c>
       <c r="H282" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
@@ -10174,7 +10174,7 @@
         <v>3</v>
       </c>
       <c r="H283" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
@@ -10200,7 +10200,7 @@
         <v>3</v>
       </c>
       <c r="H284" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
@@ -10226,7 +10226,7 @@
         <v>3</v>
       </c>
       <c r="H285" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
@@ -10252,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="H286" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
@@ -10278,7 +10278,7 @@
         <v>3</v>
       </c>
       <c r="H287" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
@@ -10304,7 +10304,7 @@
         <v>3</v>
       </c>
       <c r="H288" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -10330,7 +10330,7 @@
         <v>3</v>
       </c>
       <c r="H289" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -10356,7 +10356,7 @@
         <v>3</v>
       </c>
       <c r="H290" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -10382,7 +10382,7 @@
         <v>3</v>
       </c>
       <c r="H291" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -10408,7 +10408,7 @@
         <v>3</v>
       </c>
       <c r="H292" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -10434,7 +10434,7 @@
         <v>3</v>
       </c>
       <c r="H293" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
@@ -10460,7 +10460,7 @@
         <v>3</v>
       </c>
       <c r="H294" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -10486,7 +10486,7 @@
         <v>3</v>
       </c>
       <c r="H295" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -10512,7 +10512,7 @@
         <v>3</v>
       </c>
       <c r="H296" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -10538,7 +10538,7 @@
         <v>3</v>
       </c>
       <c r="H297" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -10564,7 +10564,7 @@
         <v>3</v>
       </c>
       <c r="H298" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -10590,7 +10590,7 @@
         <v>3</v>
       </c>
       <c r="H299" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -10616,7 +10616,7 @@
         <v>3</v>
       </c>
       <c r="H300" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -10642,7 +10642,7 @@
         <v>3</v>
       </c>
       <c r="H301" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -10668,7 +10668,7 @@
         <v>3</v>
       </c>
       <c r="H302" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -10694,7 +10694,7 @@
         <v>3</v>
       </c>
       <c r="H303" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -10720,7 +10720,7 @@
         <v>3</v>
       </c>
       <c r="H304" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -10746,7 +10746,7 @@
         <v>3</v>
       </c>
       <c r="H305" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -10772,7 +10772,7 @@
         <v>3</v>
       </c>
       <c r="H306" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -10798,7 +10798,7 @@
         <v>3</v>
       </c>
       <c r="H307" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -10824,7 +10824,7 @@
         <v>3</v>
       </c>
       <c r="H308" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -10850,7 +10850,7 @@
         <v>3</v>
       </c>
       <c r="H309" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
@@ -10876,7 +10876,7 @@
         <v>3</v>
       </c>
       <c r="H310" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -10902,7 +10902,7 @@
         <v>3</v>
       </c>
       <c r="H311" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
@@ -10928,7 +10928,7 @@
         <v>3</v>
       </c>
       <c r="H312" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
   </sheetData>
